--- a/VersionRecords/Version BrandOpt 20170221/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
+++ b/VersionRecords/Version BrandOpt 20170221/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="804" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="804" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -252,128 +252,12 @@
     <t>执行结果及报错补救方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-renterpc</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemconfig.properties</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sysconfig.ELASTIC_DEFAULT_CITY_ID=289
-sysconfig.ELASTIC_SEARCHROOM_BRAND_TYPE=brand
-</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索引擎用</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>预发环境</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>周云</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>周云</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能之前被误删除，现在需要补上</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemconfig.properties</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sysconfig.memcache.brand.longexpire=0
-</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌缓存使用</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>预发环境</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemconfig.properties</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sysconfig.ELASTIC_DEFAULT_CITY_ID=289
-sysconfig.ELASTIC_SEARCHROOM_BRAND_TYPE=brand
-</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产环境</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemconfig.properties</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sysconfig.memcache.brand.longexpire=0
-</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-renterpc</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-sysconfig.ELASTIC_SEARCHROOM_BRAND_TYPE=brand
-</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测环境</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -540,19 +424,6 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -800,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,18 +929,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -5735,8 +5594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6047,10 +5906,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6141,126 +6000,80 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="89" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="86">
-        <v>1</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="87" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="89" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="86">
-        <v>2</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" s="87"/>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
@@ -6352,53 +6165,23 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I6 JE4:JE5 WVQ4:WVQ5 WLU4:WLU5 WBY4:WBY5 VSC4:VSC5 VIG4:VIG5 UYK4:UYK5 UOO4:UOO5 UES4:UES5 TUW4:TUW5 TLA4:TLA5 TBE4:TBE5 SRI4:SRI5 SHM4:SHM5 RXQ4:RXQ5 RNU4:RNU5 RDY4:RDY5 QUC4:QUC5 QKG4:QKG5 QAK4:QAK5 PQO4:PQO5 PGS4:PGS5 OWW4:OWW5 ONA4:ONA5 ODE4:ODE5 NTI4:NTI5 NJM4:NJM5 MZQ4:MZQ5 MPU4:MPU5 MFY4:MFY5 LWC4:LWC5 LMG4:LMG5 LCK4:LCK5 KSO4:KSO5 KIS4:KIS5 JYW4:JYW5 JPA4:JPA5 JFE4:JFE5 IVI4:IVI5 ILM4:ILM5 IBQ4:IBQ5 HRU4:HRU5 HHY4:HHY5 GYC4:GYC5 GOG4:GOG5 GEK4:GEK5 FUO4:FUO5 FKS4:FKS5 FAW4:FAW5 ERA4:ERA5 EHE4:EHE5 DXI4:DXI5 DNM4:DNM5 DDQ4:DDQ5 CTU4:CTU5 CJY4:CJY5 CAC4:CAC5 BQG4:BQG5 BGK4:BGK5 AWO4:AWO5 AMS4:AMS5 ACW4:ACW5 TA4:TA5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I4">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 WVN4:WVN5 WLR4:WLR5 WBV4:WBV5 VRZ4:VRZ5 VID4:VID5 UYH4:UYH5 UOL4:UOL5 UEP4:UEP5 TUT4:TUT5 TKX4:TKX5 TBB4:TBB5 SRF4:SRF5 SHJ4:SHJ5 RXN4:RXN5 RNR4:RNR5 RDV4:RDV5 QTZ4:QTZ5 QKD4:QKD5 QAH4:QAH5 PQL4:PQL5 PGP4:PGP5 OWT4:OWT5 OMX4:OMX5 ODB4:ODB5 NTF4:NTF5 NJJ4:NJJ5 MZN4:MZN5 MPR4:MPR5 MFV4:MFV5 LVZ4:LVZ5 LMD4:LMD5 LCH4:LCH5 KSL4:KSL5 KIP4:KIP5 JYT4:JYT5 JOX4:JOX5 JFB4:JFB5 IVF4:IVF5 ILJ4:ILJ5 IBN4:IBN5 HRR4:HRR5 HHV4:HHV5 GXZ4:GXZ5 GOD4:GOD5 GEH4:GEH5 FUL4:FUL5 FKP4:FKP5 FAT4:FAT5 EQX4:EQX5 EHB4:EHB5 DXF4:DXF5 DNJ4:DNJ5 DDN4:DDN5 CTR4:CTR5 CJV4:CJV5 BZZ4:BZZ5 BQD4:BQD5 BGH4:BGH5 AWL4:AWL5 AMP4:AMP5 ACT4:ACT5 SX4:SX5 JB4:JB5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F14">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6407,10 +6190,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6501,126 +6284,80 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="89" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="86">
-        <v>1</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="87" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="89" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="86">
-        <v>2</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" s="87"/>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
@@ -6712,53 +6449,23 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I6 JE4:JE5 WVQ4:WVQ5 WLU4:WLU5 WBY4:WBY5 VSC4:VSC5 VIG4:VIG5 UYK4:UYK5 UOO4:UOO5 UES4:UES5 TUW4:TUW5 TLA4:TLA5 TBE4:TBE5 SRI4:SRI5 SHM4:SHM5 RXQ4:RXQ5 RNU4:RNU5 RDY4:RDY5 QUC4:QUC5 QKG4:QKG5 QAK4:QAK5 PQO4:PQO5 PGS4:PGS5 OWW4:OWW5 ONA4:ONA5 ODE4:ODE5 NTI4:NTI5 NJM4:NJM5 MZQ4:MZQ5 MPU4:MPU5 MFY4:MFY5 LWC4:LWC5 LMG4:LMG5 LCK4:LCK5 KSO4:KSO5 KIS4:KIS5 JYW4:JYW5 JPA4:JPA5 JFE4:JFE5 IVI4:IVI5 ILM4:ILM5 IBQ4:IBQ5 HRU4:HRU5 HHY4:HHY5 GYC4:GYC5 GOG4:GOG5 GEK4:GEK5 FUO4:FUO5 FKS4:FKS5 FAW4:FAW5 ERA4:ERA5 EHE4:EHE5 DXI4:DXI5 DNM4:DNM5 DDQ4:DDQ5 CTU4:CTU5 CJY4:CJY5 CAC4:CAC5 BQG4:BQG5 BGK4:BGK5 AWO4:AWO5 AMS4:AMS5 ACW4:ACW5 TA4:TA5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I4">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 WVN4:WVN5 WLR4:WLR5 WBV4:WBV5 VRZ4:VRZ5 VID4:VID5 UYH4:UYH5 UOL4:UOL5 UEP4:UEP5 TUT4:TUT5 TKX4:TKX5 TBB4:TBB5 SRF4:SRF5 SHJ4:SHJ5 RXN4:RXN5 RNR4:RNR5 RDV4:RDV5 QTZ4:QTZ5 QKD4:QKD5 QAH4:QAH5 PQL4:PQL5 PGP4:PGP5 OWT4:OWT5 OMX4:OMX5 ODB4:ODB5 NTF4:NTF5 NJJ4:NJJ5 MZN4:MZN5 MPR4:MPR5 MFV4:MFV5 LVZ4:LVZ5 LMD4:LMD5 LCH4:LCH5 KSL4:KSL5 KIP4:KIP5 JYT4:JYT5 JOX4:JOX5 JFB4:JFB5 IVF4:IVF5 ILJ4:ILJ5 IBN4:IBN5 HRR4:HRR5 HHV4:HHV5 GXZ4:GXZ5 GOD4:GOD5 GEH4:GEH5 FUL4:FUL5 FKP4:FKP5 FAT4:FAT5 EQX4:EQX5 EHB4:EHB5 DXF4:DXF5 DNJ4:DNJ5 DDN4:DDN5 CTR4:CTR5 CJV4:CJV5 BZZ4:BZZ5 BQD4:BQD5 BGH4:BGH5 AWL4:AWL5 AMP4:AMP5 ACT4:ACT5 SX4:SX5 JB4:JB5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F14">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6767,10 +6474,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6863,126 +6570,80 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="89" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="86">
-        <v>1</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="87" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="89" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="86">
-        <v>2</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" s="87"/>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
@@ -7074,53 +6735,23 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 WVN4:WVN5 WLR4:WLR5 WBV4:WBV5 VRZ4:VRZ5 VID4:VID5 UYH4:UYH5 UOL4:UOL5 UEP4:UEP5 TUT4:TUT5 TKX4:TKX5 TBB4:TBB5 SRF4:SRF5 SHJ4:SHJ5 RXN4:RXN5 RNR4:RNR5 RDV4:RDV5 QTZ4:QTZ5 QKD4:QKD5 QAH4:QAH5 PQL4:PQL5 PGP4:PGP5 OWT4:OWT5 OMX4:OMX5 ODB4:ODB5 NTF4:NTF5 NJJ4:NJJ5 MZN4:MZN5 MPR4:MPR5 MFV4:MFV5 LVZ4:LVZ5 LMD4:LMD5 LCH4:LCH5 KSL4:KSL5 KIP4:KIP5 JYT4:JYT5 JOX4:JOX5 JFB4:JFB5 IVF4:IVF5 ILJ4:ILJ5 IBN4:IBN5 HRR4:HRR5 HHV4:HHV5 GXZ4:GXZ5 GOD4:GOD5 GEH4:GEH5 FUL4:FUL5 FKP4:FKP5 FAT4:FAT5 EQX4:EQX5 EHB4:EHB5 DXF4:DXF5 DNJ4:DNJ5 DDN4:DDN5 CTR4:CTR5 CJV4:CJV5 BZZ4:BZZ5 BQD4:BQD5 BGH4:BGH5 AWL4:AWL5 AMP4:AMP5 ACT4:ACT5 SX4:SX5 JB4:JB5">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I6 JE4:JE5 WVQ4:WVQ5 WLU4:WLU5 WBY4:WBY5 VSC4:VSC5 VIG4:VIG5 UYK4:UYK5 UOO4:UOO5 UES4:UES5 TUW4:TUW5 TLA4:TLA5 TBE4:TBE5 SRI4:SRI5 SHM4:SHM5 RXQ4:RXQ5 RNU4:RNU5 RDY4:RDY5 QUC4:QUC5 QKG4:QKG5 QAK4:QAK5 PQO4:PQO5 PGS4:PGS5 OWW4:OWW5 ONA4:ONA5 ODE4:ODE5 NTI4:NTI5 NJM4:NJM5 MZQ4:MZQ5 MPU4:MPU5 MFY4:MFY5 LWC4:LWC5 LMG4:LMG5 LCK4:LCK5 KSO4:KSO5 KIS4:KIS5 JYW4:JYW5 JPA4:JPA5 JFE4:JFE5 IVI4:IVI5 ILM4:ILM5 IBQ4:IBQ5 HRU4:HRU5 HHY4:HHY5 GYC4:GYC5 GOG4:GOG5 GEK4:GEK5 FUO4:FUO5 FKS4:FKS5 FAW4:FAW5 ERA4:ERA5 EHE4:EHE5 DXI4:DXI5 DNM4:DNM5 DDQ4:DDQ5 CTU4:CTU5 CJY4:CJY5 CAC4:CAC5 BQG4:BQG5 BGK4:BGK5 AWO4:AWO5 AMS4:AMS5 ACW4:ACW5 TA4:TA5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I4">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F14">
+      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
